--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -65,7 +65,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
+          <t>SenNet ID of the source (whole organism) of the assayed tissue.</t>
         </r>
       </text>
     </comment>
@@ -78,7 +78,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>HuBMAP Display ID of the assayed tissue.</t>
+          <t>SenNet ID of the assayed tissue.</t>
         </r>
       </text>
     </comment>
